--- a/ProjectDetails.xlsx
+++ b/ProjectDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70390f71d35a602b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neehar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{62B8845B-A351-400B-A1FA-8E5DF0ACCBE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{36E666E2-C0A9-4EC0-B3EE-498AD5FBF2DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670D872-7DBD-427D-B84A-5A34B392B327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6195" xr2:uid="{3FF40AB1-CBF0-4A14-9A49-B52F07A97D1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3FF40AB1-CBF0-4A14-9A49-B52F07A97D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>Dashboard Name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>ETA (Day)</t>
+  </si>
+  <si>
+    <t>Dead Line</t>
   </si>
 </sst>
 </file>
@@ -228,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFB3C62-2336-4449-868E-4C9070765826}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,9 +561,10 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,105 +580,123 @@
       <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -681,7 +704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -689,7 +712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -697,7 +720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -705,7 +728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -713,7 +736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -721,7 +744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
